--- a/medicine/Sexualité et sexologie/Brothers_of_the_Night/Brothers_of_the_Night.xlsx
+++ b/medicine/Sexualité et sexologie/Brothers_of_the_Night/Brothers_of_the_Night.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brothers of the Night est un documentaire autrichien réalisé par Patric Chiha en 2016. La Première mondiale a eu lieu à la Berlinale 2016[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brothers of the Night est un documentaire autrichien réalisé par Patric Chiha en 2016. La Première mondiale a eu lieu à la Berlinale 2016.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De frêles et innocents garçons le jour, de sulfureux rois de la débauche la nuit. Ils sont jeunes, roms et bulgares. Ils sont venus à Vienne en quête de liberté et d’argent facile. Parfois mariés et pères de famille chez eux, ils deviennent des prostitués homosexuels dans un bar gay de la ville. Des "garçons de mauvaise vie". Seul les console, et parfois les réchauffe, le sentiment si rassurant d’appartenir à un groupe, celui de "jeunes tapins mis au pilori par le stigmate social mais toutefois unis ensemble dans leur destin commun de travailleurs du sexe et leur statut d'objet sexuel". Néanmoins, les nuits sont longues et imprévisibles dans cette ambiance d'alcool, de drogues et de "sex business" car les passes avec les différents clients qu'ils racolent ne se ressemblent pas forcément les unes aux autres[2]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De frêles et innocents garçons le jour, de sulfureux rois de la débauche la nuit. Ils sont jeunes, roms et bulgares. Ils sont venus à Vienne en quête de liberté et d’argent facile. Parfois mariés et pères de famille chez eux, ils deviennent des prostitués homosexuels dans un bar gay de la ville. Des "garçons de mauvaise vie". Seul les console, et parfois les réchauffe, le sentiment si rassurant d’appartenir à un groupe, celui de "jeunes tapins mis au pilori par le stigmate social mais toutefois unis ensemble dans leur destin commun de travailleurs du sexe et leur statut d'objet sexuel". Néanmoins, les nuits sont longues et imprévisibles dans cette ambiance d'alcool, de drogues et de "sex business" car les passes avec les différents clients qu'ils racolent ne se ressemblent pas forcément les unes aux autres...
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : Brüder der Nacht
 Réalisation et scénario : Patric Chiha
@@ -592,8 +608,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a eu lieu en février et mars 2015 à Vienne en Autriche.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu en février et mars 2015 à Vienne en Autriche.
 </t>
         </is>
       </c>
@@ -624,8 +645,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné recense une moyenne des critiques presse de 3,8/5, et des critiques spectateurs à 2,6/5[3].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 3,8/5, et des critiques spectateurs à 2,6/5.
 </t>
         </is>
       </c>
@@ -654,7 +680,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Autriche - 'Nomination pour le "Österreichischer Filmpreis 2017" (Meilleur Documentaire &amp; Meilleure Image)
 Curitiba IFF - Prix du Jury
